--- a/tezign.xlsx
+++ b/tezign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>请求执行语句</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,64 @@
   </si>
   <si>
     <t>app_id=f89ae61fd63d4a63842277e9144a6bd2&amp;app_key=af1cd33549c54b27ae24aeb041865da2&amp;url=https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=3216243903,2266890130%26fm=117%26gp=0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误3</t>
+  </si>
+  <si>
+    <t>app_id=f89ae61fd63d4a63842277e9144a6bd2&amp;app_key=af1cd33549c54b27ae24aeb041865da2&amp;face_id=5cf454f90ee44ce6b6c0bf38a60f4149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.eyekey.com/face/Check/check_mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误4</t>
+  </si>
+  <si>
+    <t>http://api.eyekey.com/face/Check/check_mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id=f89ae61fd63d4a63842277e9144a6bd2&amp;app_key=af1cd33549c54b27ae24aeb041865da2&amp;face_id=5cf454f90ee44ce6b6c0bf38a60f4149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_code=0000&amp;img_width=146&amp;img_height=220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_code=0000&amp;img_width=146&amp;img_height=220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_code=0000&amp;face_id=5cf454f90ee44ce6b6c0bf38a60f4149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Except</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,10 +543,11 @@
     <col min="4" max="4" width="51.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="31.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -499,7 +558,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,13 +580,16 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>123</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -541,13 +603,16 @@
       <c r="F3" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>456</v>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -561,13 +626,16 @@
       <c r="F4" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>456</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -579,40 +647,83 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -631,18 +742,20 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,10 +766,11 @@
     <col min="4" max="4" width="51.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="40.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -667,7 +781,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,8 +803,11 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -709,8 +826,11 @@
       <c r="F3" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -729,8 +849,11 @@
       <c r="F4" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -749,8 +872,11 @@
       <c r="F5" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -769,8 +895,11 @@
       <c r="F6" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -789,8 +918,11 @@
       <c r="F7" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -809,29 +941,32 @@
       <c r="F8" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
